--- a/tonns of good2025.xlsx
+++ b/tonns of good2025.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <bookViews>
     <workbookView windowHeight="14605" activeTab="1"/>
@@ -12,9 +11,6 @@
     <sheet name="amount" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">amount!$A$1:$Q$87</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,20 +38,11 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>作者:
 本期暂估螺纹入账</t>
         </r>
       </text>
@@ -64,29 +51,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-本期配件暂估入库</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>195465.81</t>
+          <t>作者:
+本期配件暂估入库195465.81</t>
         </r>
       </text>
     </comment>
@@ -94,20 +64,11 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>作者:
 在途借方+应付暂估贷方</t>
         </r>
       </text>
@@ -117,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="36">
   <si>
     <t>begining</t>
   </si>
@@ -146,44 +107,10 @@
     <t>Caprolactam</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>olyamide light-stabilized yarn 93.5 tex</t>
-    </r>
+    <t>Polyamide light-stabilized yarn 93.5 tex</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>olyamide not the  thermostabilized yarn 187tex</t>
-    </r>
+    <t>Polyamide not the  thermostabilized yarn 187tex</t>
   </si>
   <si>
     <t>yarn 144tex</t>
@@ -192,84 +119,16 @@
     <t>yarn 94tex</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>olyamide fiber 1 tex</t>
-    </r>
+    <t>Polyamide fiber 1 tex</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>olyamide fiber 0.48 tex</t>
-    </r>
+    <t>Polyamide fiber 0.48 tex</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>olyamide fiber 0.68 tex</t>
-    </r>
+    <t>Polyamide fiber 0.68 tex</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>olyamide fiber 0.33 tex</t>
-    </r>
+    <t>Polyamide fiber 0.33 tex</t>
   </si>
   <si>
     <t>fish net</t>
@@ -317,81 +176,16 @@
     <t>Fish nets</t>
   </si>
   <si>
-    <t>Polyamide light-stabilized yarn 93.5 tex</t>
-  </si>
-  <si>
-    <t>Polyamide not the  thermostabilized yarn 187tex</t>
-  </si>
-  <si>
-    <t>Polyamide fiber 1 tex</t>
-  </si>
-  <si>
-    <t>Polyamide fiber 0.48 tex</t>
-  </si>
-  <si>
-    <t>Polyamide fiber 0.68 tex</t>
-  </si>
-  <si>
-    <t>Polyamide fiber 0.33 tex</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mailing Address: </t>
   </si>
   <si>
     <t>2209,Wanda Plaza Building B, 36 Guobin Road,Shanghai 200433,China</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E-mail:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> jane.liu@kuazot-tr.cn_ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                   </t>
-    </r>
+    <t xml:space="preserve">E-mail: jane.liu@kuazot-tr.cn_                    </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">By: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                              </t>
-    </r>
+    <t xml:space="preserve">By:                                               </t>
   </si>
 </sst>
 </file>
@@ -410,7 +204,7 @@
     <numFmt numFmtId="180" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="181" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,27 +411,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1007,292 +782,292 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1317,140 +1092,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1460,10 +1236,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1489,13 +1264,13 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1505,7 +1280,7 @@
     <xf numFmtId="40" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2005,17 +1780,17 @@
       <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.45945945945946" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.4594594594595" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.4594594594595" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.4594594594595" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.0720720720721" style="7" customWidth="1"/>
-    <col min="6" max="7" width="11.4594594594595" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.0720720720721" style="7" customWidth="1"/>
-    <col min="9" max="14" width="14.0720720720721" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.0720720720721" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.46363636363636" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4636363636364" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.4636363636364" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.0727272727273" style="7" customWidth="1"/>
+    <col min="6" max="7" width="11.4636363636364" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.0727272727273" style="7" customWidth="1"/>
+    <col min="9" max="14" width="14.0727272727273" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.0727272727273" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2062,18 +1837,18 @@
       </c>
       <c r="P1" s="16"/>
     </row>
-    <row r="2" s="4" customFormat="1" ht="18.4" spans="1:15">
+    <row r="2" s="5" customFormat="1" ht="18.4" customHeight="1" spans="1:15">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25">
-        <f>D3+SUM(D15:D28)</f>
-        <v>0</v>
+        <f t="shared" ref="D2:O2" si="0">D3+SUM(D15:D28)</f>
+        <v>2425.39</v>
       </c>
       <c r="E2" s="25">
-        <f t="shared" ref="E2:O2" si="0">E3+SUM(E15:E28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2" s="25">
@@ -2124,11 +1899,11 @@
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26">
-        <f>D4+D14</f>
-        <v>0</v>
+        <f t="shared" ref="D3:O3" si="1">D4+D14</f>
+        <v>926.64</v>
       </c>
       <c r="E3" s="26">
-        <f t="shared" ref="E3:O3" si="1">E4+E14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3" s="26">
@@ -2179,11 +1954,11 @@
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26">
-        <f>SUM(D5:D13)</f>
-        <v>0</v>
+        <f t="shared" ref="D4:O4" si="2">SUM(D5:D13)</f>
+        <v>926.64</v>
       </c>
       <c r="E4" s="26">
-        <f t="shared" ref="E4:O4" si="2">SUM(E5:E13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4" s="26">
@@ -2233,7 +2008,9 @@
         <v>25</v>
       </c>
       <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="D5" s="26">
+        <v>102.96</v>
+      </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
@@ -2252,7 +2029,9 @@
         <v>27</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26">
+        <v>411.84</v>
+      </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -2366,7 +2145,9 @@
         <v>24</v>
       </c>
       <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -2385,7 +2166,9 @@
         <v>5</v>
       </c>
       <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="D13" s="26">
+        <v>411.84</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -2442,7 +2225,9 @@
         <v>8</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="D16" s="26">
+        <v>1498.75</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -2683,18 +2468,18 @@
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
     </row>
-    <row r="29" s="4" customFormat="1" ht="18.4" spans="1:15">
+    <row r="29" s="5" customFormat="1" ht="18.4" customHeight="1" spans="1:15">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25">
-        <f>D30+SUM(D42:D55)</f>
-        <v>0</v>
+        <f t="shared" ref="D29:O29" si="3">D30+SUM(D42:D55)</f>
+        <v>3248.135</v>
       </c>
       <c r="E29" s="25">
-        <f t="shared" ref="E29:O29" si="3">E30+SUM(E42:E55)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F29" s="25">
@@ -2745,11 +2530,11 @@
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26">
-        <f>D31+D41</f>
-        <v>0</v>
+        <f t="shared" ref="D30:O30" si="4">D31+D41</f>
+        <v>764.01</v>
       </c>
       <c r="E30" s="26">
-        <f t="shared" ref="E30:O30" si="4">E31+E41</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F30" s="26">
@@ -2800,11 +2585,11 @@
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="26">
-        <f>SUM(D32:D40)</f>
-        <v>0</v>
+        <f t="shared" ref="D31:O31" si="5">SUM(D32:D40)</f>
+        <v>764.01</v>
       </c>
       <c r="E31" s="26">
-        <f t="shared" ref="E31:O31" si="5">SUM(E32:E40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F31" s="26">
@@ -2854,7 +2639,9 @@
         <v>25</v>
       </c>
       <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="D32" s="26">
+        <v>437.58</v>
+      </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -2873,7 +2660,9 @@
         <v>27</v>
       </c>
       <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="D33" s="26">
+        <v>326.43</v>
+      </c>
       <c r="E33" s="30"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
@@ -3063,7 +2852,9 @@
         <v>8</v>
       </c>
       <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="D43" s="26">
+        <v>2484.125</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -3304,7 +3095,7 @@
       <c r="N55" s="26"/>
       <c r="O55" s="26"/>
     </row>
-    <row r="56" s="4" customFormat="1" ht="18.4" spans="1:15">
+    <row r="56" s="5" customFormat="1" ht="18.4" customHeight="1" spans="1:15">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
         <v>24</v>
@@ -3314,52 +3105,52 @@
         <v>6614.465</v>
       </c>
       <c r="D56" s="25">
-        <f>D57+SUM(D69:D82)</f>
-        <v>6614.465</v>
+        <f t="shared" ref="D56:O56" si="6">D57+SUM(D69:D82)</f>
+        <v>5791.72</v>
       </c>
       <c r="E56" s="25">
-        <f t="shared" ref="E56:O56" si="6">E57+SUM(E69:E82)</f>
-        <v>6614.465</v>
+        <f t="shared" si="6"/>
+        <v>5791.72</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="6"/>
-        <v>6614.465</v>
+        <v>5791.72</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="6"/>
-        <v>6614.465</v>
+        <v>5791.72</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="6"/>
-        <v>6614.465</v>
+        <v>5791.72</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="6"/>
-        <v>6614.465</v>
+        <v>5791.72</v>
       </c>
       <c r="J56" s="25">
         <f t="shared" si="6"/>
-        <v>6614.465</v>
+        <v>5791.72</v>
       </c>
       <c r="K56" s="25">
         <f t="shared" si="6"/>
-        <v>6614.465</v>
+        <v>5791.72</v>
       </c>
       <c r="L56" s="25">
         <f t="shared" si="6"/>
-        <v>6614.465</v>
+        <v>5791.72</v>
       </c>
       <c r="M56" s="25">
         <f t="shared" si="6"/>
-        <v>6614.465</v>
+        <v>5791.72</v>
       </c>
       <c r="N56" s="25">
         <f t="shared" si="6"/>
-        <v>6614.465</v>
+        <v>5791.72</v>
       </c>
       <c r="O56" s="25">
         <f t="shared" si="6"/>
-        <v>6614.465</v>
+        <v>5791.72</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3368,56 +3159,56 @@
         <v>25</v>
       </c>
       <c r="C57" s="26">
-        <f>C58+C68</f>
+        <f t="shared" ref="C57:O57" si="7">C58+C68</f>
         <v>3980.34</v>
       </c>
       <c r="D57" s="26">
-        <f>D58+D68</f>
-        <v>3980.34</v>
+        <f t="shared" si="7"/>
+        <v>4142.97</v>
       </c>
       <c r="E57" s="26">
-        <f t="shared" ref="E57:O57" si="7">E58+E68</f>
-        <v>3980.34</v>
+        <f t="shared" si="7"/>
+        <v>4142.97</v>
       </c>
       <c r="F57" s="26">
         <f t="shared" si="7"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="G57" s="26">
         <f t="shared" si="7"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="H57" s="26">
         <f t="shared" si="7"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="I57" s="26">
         <f t="shared" si="7"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="J57" s="26">
         <f t="shared" si="7"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="K57" s="26">
         <f t="shared" si="7"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="L57" s="26">
         <f t="shared" si="7"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="M57" s="26">
         <f t="shared" si="7"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="N57" s="26">
         <f t="shared" si="7"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="O57" s="26">
         <f t="shared" si="7"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3430,52 +3221,52 @@
         <v>3980.34</v>
       </c>
       <c r="D58" s="26">
-        <f>SUM(D59:D67)</f>
-        <v>3980.34</v>
+        <f t="shared" ref="D58:O58" si="8">SUM(D59:D67)</f>
+        <v>4142.97</v>
       </c>
       <c r="E58" s="26">
-        <f t="shared" ref="E58:O58" si="8">SUM(E59:E67)</f>
-        <v>3980.34</v>
+        <f t="shared" si="8"/>
+        <v>4142.97</v>
       </c>
       <c r="F58" s="26">
         <f t="shared" si="8"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="G58" s="26">
         <f t="shared" si="8"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="H58" s="26">
         <f t="shared" si="8"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="I58" s="26">
         <f t="shared" si="8"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="J58" s="26">
         <f t="shared" si="8"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="K58" s="26">
         <f t="shared" si="8"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="L58" s="26">
         <f t="shared" si="8"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="M58" s="26">
         <f t="shared" si="8"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="N58" s="26">
         <f t="shared" si="8"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
       <c r="O58" s="26">
         <f t="shared" si="8"/>
-        <v>3980.34</v>
+        <v>4142.97</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3488,51 +3279,51 @@
       </c>
       <c r="D59" s="26">
         <f t="shared" ref="D59:O59" si="9">C59+D5-D32</f>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="E59" s="26">
         <f t="shared" si="9"/>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="F59" s="26">
         <f t="shared" si="9"/>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="G59" s="26">
         <f t="shared" si="9"/>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="H59" s="26">
         <f t="shared" si="9"/>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="I59" s="26">
         <f t="shared" si="9"/>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="J59" s="26">
         <f t="shared" si="9"/>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="K59" s="26">
         <f t="shared" si="9"/>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="L59" s="26">
         <f t="shared" si="9"/>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="M59" s="26">
         <f t="shared" si="9"/>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="N59" s="26">
         <f t="shared" si="9"/>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="O59" s="36">
         <f t="shared" si="9"/>
-        <v>1983.15</v>
+        <v>1648.53</v>
       </c>
       <c r="Q59" s="19"/>
     </row>
@@ -3546,51 +3337,51 @@
       </c>
       <c r="D60" s="26">
         <f t="shared" ref="D60:O60" si="10">C60+D6-D33</f>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="E60" s="26">
         <f t="shared" si="10"/>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="F60" s="26">
         <f t="shared" si="10"/>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="G60" s="26">
         <f t="shared" si="10"/>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="H60" s="26">
         <f t="shared" si="10"/>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="I60" s="26">
         <f t="shared" si="10"/>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="J60" s="26">
         <f t="shared" si="10"/>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="K60" s="26">
         <f t="shared" si="10"/>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="L60" s="26">
         <f t="shared" si="10"/>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="M60" s="26">
         <f t="shared" si="10"/>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="N60" s="26">
         <f t="shared" si="10"/>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="O60" s="26">
         <f t="shared" si="10"/>
-        <v>400.14</v>
+        <v>485.55</v>
       </c>
       <c r="Q60" s="19"/>
     </row>
@@ -3952,51 +3743,51 @@
       </c>
       <c r="D67" s="26">
         <f t="shared" ref="D67:O67" si="17">C67+D13-D40</f>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="E67" s="26">
         <f t="shared" si="17"/>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="F67" s="26">
         <f t="shared" si="17"/>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="G67" s="26">
         <f t="shared" si="17"/>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="H67" s="26">
         <f t="shared" si="17"/>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="I67" s="26">
         <f t="shared" si="17"/>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="J67" s="26">
         <f t="shared" si="17"/>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="K67" s="26">
         <f t="shared" si="17"/>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="L67" s="26">
         <f t="shared" si="17"/>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="M67" s="26">
         <f t="shared" si="17"/>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="N67" s="26">
         <f t="shared" si="17"/>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="O67" s="26">
         <f t="shared" si="17"/>
-        <v>360.36</v>
+        <v>772.2</v>
       </c>
       <c r="Q67" s="19"/>
     </row>
@@ -4126,51 +3917,51 @@
       </c>
       <c r="D70" s="26">
         <f t="shared" ref="D70:O70" si="20">C70+D16-D43</f>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="E70" s="26">
         <f t="shared" si="20"/>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="F70" s="26">
         <f t="shared" si="20"/>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="G70" s="26">
         <f t="shared" si="20"/>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="H70" s="26">
         <f t="shared" si="20"/>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="I70" s="26">
         <f t="shared" si="20"/>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="J70" s="26">
         <f t="shared" si="20"/>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="K70" s="26">
         <f t="shared" si="20"/>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="L70" s="26">
         <f t="shared" si="20"/>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="M70" s="26">
         <f t="shared" si="20"/>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="N70" s="26">
         <f t="shared" si="20"/>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="O70" s="26">
         <f t="shared" si="20"/>
-        <v>2634.125</v>
+        <v>1648.75</v>
       </c>
       <c r="Q70" s="19"/>
     </row>
@@ -4705,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="26">
-        <f t="shared" ref="D80:O81" si="30">C80+D26-D53</f>
+        <f t="shared" ref="D80:O80" si="30">C80+D26-D53</f>
         <v>0</v>
       </c>
       <c r="E80" s="26">
@@ -4737,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="26">
-        <f>K80+L26-L53</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M80" s="26">
@@ -4763,51 +4554,51 @@
         <v>0</v>
       </c>
       <c r="D81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="D81:O81" si="31">C81+D27-D54</f>
         <v>0</v>
       </c>
       <c r="E81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O81" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q81" s="19"/>
@@ -4821,51 +4612,51 @@
         <v>0</v>
       </c>
       <c r="D82" s="26">
-        <f t="shared" ref="D82:O82" si="31">C82+D28-D55</f>
+        <f t="shared" ref="D82:O82" si="32">C82+D28-D55</f>
         <v>0</v>
       </c>
       <c r="E82" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F82" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G82" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H82" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I82" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J82" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K82" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L82" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M82" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N82" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O82" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q82" s="19"/>
@@ -4881,51 +4672,51 @@
         <v>26</v>
       </c>
       <c r="D85" s="24">
-        <f>D2-D25-D28</f>
-        <v>0</v>
+        <f t="shared" ref="D85:O85" si="33">D2-D25-D28</f>
+        <v>2425.39</v>
       </c>
       <c r="E85" s="24">
-        <f t="shared" ref="E85:O85" si="32">E2-E25-E28</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F85" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G85" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H85" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I85" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J85" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K85" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L85" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M85" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N85" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O85" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q85" s="19"/>
@@ -4935,51 +4726,51 @@
         <v>27</v>
       </c>
       <c r="D86" s="24">
-        <f>D29-D52-D55</f>
-        <v>0</v>
+        <f t="shared" ref="D86:O86" si="34">D29-D52-D55</f>
+        <v>3248.135</v>
       </c>
       <c r="E86" s="24">
-        <f t="shared" ref="E86:O86" si="33">E29-E52-E55</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F86" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G86" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H86" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I86" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J86" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K86" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L86" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M86" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N86" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O86" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q86" s="19"/>
@@ -4989,52 +4780,52 @@
         <v>28</v>
       </c>
       <c r="D87" s="24">
-        <f>D56-D79-D82</f>
-        <v>6614.465</v>
+        <f t="shared" ref="D87:O87" si="35">D56-D79-D82</f>
+        <v>5791.72</v>
       </c>
       <c r="E87" s="24">
-        <f t="shared" ref="E87:O87" si="34">E56-E79-E82</f>
-        <v>6614.465</v>
+        <f t="shared" si="35"/>
+        <v>5791.72</v>
       </c>
       <c r="F87" s="24">
-        <f t="shared" si="34"/>
-        <v>6614.465</v>
+        <f t="shared" si="35"/>
+        <v>5791.72</v>
       </c>
       <c r="G87" s="24">
-        <f t="shared" si="34"/>
-        <v>6614.465</v>
+        <f t="shared" si="35"/>
+        <v>5791.72</v>
       </c>
       <c r="H87" s="24">
-        <f t="shared" si="34"/>
-        <v>6614.465</v>
+        <f t="shared" si="35"/>
+        <v>5791.72</v>
       </c>
       <c r="I87" s="24">
-        <f t="shared" si="34"/>
-        <v>6614.465</v>
+        <f t="shared" si="35"/>
+        <v>5791.72</v>
       </c>
       <c r="J87" s="24">
-        <f t="shared" si="34"/>
-        <v>6614.465</v>
+        <f t="shared" si="35"/>
+        <v>5791.72</v>
       </c>
       <c r="K87" s="24">
-        <f t="shared" si="34"/>
-        <v>6614.465</v>
+        <f t="shared" si="35"/>
+        <v>5791.72</v>
       </c>
       <c r="L87" s="24">
-        <f t="shared" si="34"/>
-        <v>6614.465</v>
+        <f t="shared" si="35"/>
+        <v>5791.72</v>
       </c>
       <c r="M87" s="24">
-        <f t="shared" si="34"/>
-        <v>6614.465</v>
+        <f t="shared" si="35"/>
+        <v>5791.72</v>
       </c>
       <c r="N87" s="24">
-        <f t="shared" si="34"/>
-        <v>6614.465</v>
+        <f t="shared" si="35"/>
+        <v>5791.72</v>
       </c>
       <c r="O87" s="24">
-        <f t="shared" si="34"/>
-        <v>6614.465</v>
+        <f t="shared" si="35"/>
+        <v>5791.72</v>
       </c>
       <c r="Q87" s="19"/>
     </row>
@@ -5211,19 +5002,19 @@
       <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.45945945945946" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.0720720720721" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.7297297297297" style="6" customWidth="1"/>
-    <col min="4" max="6" width="16.0720720720721" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.6936936936937" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.4864864864865" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.5675675675676" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.0720720720721" style="7" customWidth="1"/>
-    <col min="11" max="15" width="14.0720720720721" style="7" customWidth="1"/>
-    <col min="16" max="16" width="20.4594594594595" customWidth="1"/>
-    <col min="17" max="17" width="11.4594594594595" customWidth="1"/>
+    <col min="1" max="1" width="3.46363636363636" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.0727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7272727272727" style="6" customWidth="1"/>
+    <col min="4" max="6" width="16.0727272727273" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.6909090909091" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.4909090909091" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.5636363636364" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.0727272727273" style="7" customWidth="1"/>
+    <col min="11" max="15" width="14.0727272727273" style="7" customWidth="1"/>
+    <col min="16" max="16" width="20.4636363636364" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.4636363636364" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -5270,7 +5061,7 @@
       </c>
       <c r="P1" s="16"/>
     </row>
-    <row r="2" s="4" customFormat="1" ht="18.4" spans="1:15">
+    <row r="2" s="5" customFormat="1" ht="18.4" customHeight="1" spans="1:15">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -5278,7 +5069,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11">
         <f t="shared" ref="D2:O2" si="0">D3+SUM(D15:D28)</f>
-        <v>0</v>
+        <v>23512261.28</v>
       </c>
       <c r="E2" s="11">
         <f t="shared" si="0"/>
@@ -5332,11 +5123,11 @@
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14">
-        <f>D4+D14</f>
-        <v>0</v>
+        <f t="shared" ref="D3:O3" si="1">D4+D14</f>
+        <v>8657821.28</v>
       </c>
       <c r="E3" s="14">
-        <f t="shared" ref="E3:O3" si="1">E4+E14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3" s="14">
@@ -5387,11 +5178,11 @@
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14">
-        <f>SUM(D5:D13)</f>
-        <v>0</v>
+        <f t="shared" ref="D4:O4" si="2">SUM(D5:D13)</f>
+        <v>8657821.28</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" ref="E4:O4" si="2">SUM(E5:E13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4" s="14">
@@ -5441,7 +5232,9 @@
         <v>25</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14">
+        <v>1019328.8</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -5460,7 +5253,9 @@
         <v>27</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14">
+        <v>3819219.68</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -5574,7 +5369,9 @@
         <v>24</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -5593,7 +5390,9 @@
         <v>5</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14">
+        <v>3819272.8</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -5650,7 +5449,9 @@
         <v>8</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14">
+        <v>13128688.55</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -5666,7 +5467,7 @@
     <row r="17" spans="1:15">
       <c r="A17" s="12"/>
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -5685,7 +5486,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="12"/>
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -5741,7 +5542,7 @@
     <row r="21" spans="1:15">
       <c r="A21" s="12"/>
       <c r="B21" s="9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -5760,7 +5561,7 @@
     <row r="22" spans="1:15">
       <c r="A22" s="12"/>
       <c r="B22" s="9" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -5779,7 +5580,7 @@
     <row r="23" spans="1:15">
       <c r="A23" s="12"/>
       <c r="B23" s="9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -5798,7 +5599,7 @@
     <row r="24" spans="1:15">
       <c r="A24" s="12"/>
       <c r="B24" s="9" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -5877,7 +5678,9 @@
         <v>20</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="14">
+        <v>1725751.45</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -5891,7 +5694,7 @@
       <c r="O28" s="14"/>
       <c r="P28" s="17"/>
     </row>
-    <row r="29" s="4" customFormat="1" ht="18.4" spans="1:15">
+    <row r="29" s="5" customFormat="1" ht="18.4" customHeight="1" spans="1:15">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -5899,7 +5702,7 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11">
         <f t="shared" ref="D29:O29" si="3">D30+SUM(D42:D55)</f>
-        <v>0</v>
+        <v>32209679.16</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="3"/>
@@ -5953,11 +5756,11 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14">
-        <f>D31+D41</f>
-        <v>0</v>
+        <f t="shared" ref="D30:O30" si="4">D31+D41</f>
+        <v>8171485.76</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" ref="E30:O30" si="4">E31+E41</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F30" s="14">
@@ -6008,11 +5811,11 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14">
-        <f>SUM(D32:D40)</f>
-        <v>0</v>
+        <f t="shared" ref="D31:O31" si="5">SUM(D32:D40)</f>
+        <v>8171485.76</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" ref="E31:O31" si="5">SUM(E32:E40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F31" s="14">
@@ -6062,7 +5865,9 @@
         <v>25</v>
       </c>
       <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14">
+        <v>4616321.96</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -6081,7 +5886,9 @@
         <v>27</v>
       </c>
       <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14">
+        <v>3555163.8</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -6271,7 +6078,9 @@
         <v>8</v>
       </c>
       <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="D43" s="14">
+        <v>23208655.47</v>
+      </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
@@ -6499,7 +6308,9 @@
         <v>20</v>
       </c>
       <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="D55" s="14">
+        <v>829537.93</v>
+      </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
@@ -6512,62 +6323,62 @@
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
     </row>
-    <row r="56" s="4" customFormat="1" ht="18.4" spans="1:15">
+    <row r="56" s="5" customFormat="1" ht="18.4" customHeight="1" spans="1:15">
       <c r="A56" s="9"/>
       <c r="B56" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="11">
-        <f>C57+SUM(C69:C82)</f>
+        <f t="shared" ref="C56:O56" si="6">C57+SUM(C69:C82)</f>
         <v>67122935.33</v>
       </c>
       <c r="D56" s="11">
-        <f t="shared" ref="D56:O56" si="6">D57+SUM(D69:D82)</f>
-        <v>67122935.33</v>
+        <f t="shared" si="6"/>
+        <v>58425517.45</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="6"/>
-        <v>67122935.33</v>
+        <v>58425517.45</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="6"/>
-        <v>67122935.33</v>
+        <v>58425517.45</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="6"/>
-        <v>67122935.33</v>
+        <v>58425517.45</v>
       </c>
       <c r="H56" s="11">
         <f t="shared" si="6"/>
-        <v>67122935.33</v>
+        <v>58425517.45</v>
       </c>
       <c r="I56" s="11">
         <f t="shared" si="6"/>
-        <v>67122935.33</v>
+        <v>58425517.45</v>
       </c>
       <c r="J56" s="11">
         <f t="shared" si="6"/>
-        <v>67122935.33</v>
+        <v>58425517.45</v>
       </c>
       <c r="K56" s="11">
         <f t="shared" si="6"/>
-        <v>67122935.33</v>
+        <v>58425517.45</v>
       </c>
       <c r="L56" s="11">
         <f t="shared" si="6"/>
-        <v>67122935.33</v>
+        <v>58425517.45</v>
       </c>
       <c r="M56" s="18">
         <f t="shared" si="6"/>
-        <v>67122935.33</v>
+        <v>58425517.45</v>
       </c>
       <c r="N56" s="11">
         <f t="shared" si="6"/>
-        <v>67122935.33</v>
+        <v>58425517.45</v>
       </c>
       <c r="O56" s="11">
         <f t="shared" si="6"/>
-        <v>67122935.33</v>
+        <v>58425517.45</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -6576,56 +6387,56 @@
         <v>25</v>
       </c>
       <c r="C57" s="14">
-        <f>C58+C68</f>
+        <f t="shared" ref="C57:O57" si="7">C58+C68</f>
         <v>42341935.75</v>
       </c>
       <c r="D57" s="14">
-        <f>D58+D68</f>
-        <v>42341935.75</v>
+        <f t="shared" si="7"/>
+        <v>42828271.27</v>
       </c>
       <c r="E57" s="14">
-        <f t="shared" ref="E57:O57" si="7">E58+E68</f>
-        <v>42341935.75</v>
+        <f t="shared" si="7"/>
+        <v>42828271.27</v>
       </c>
       <c r="F57" s="14">
         <f t="shared" si="7"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="G57" s="14">
         <f t="shared" si="7"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="7"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="I57" s="14">
         <f t="shared" si="7"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="J57" s="14">
         <f t="shared" si="7"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="K57" s="14">
         <f t="shared" si="7"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="L57" s="14">
         <f t="shared" si="7"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="M57" s="14">
         <f t="shared" si="7"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="N57" s="14">
         <f t="shared" si="7"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="O57" s="14">
         <f t="shared" si="7"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -6638,52 +6449,52 @@
         <v>42341935.75</v>
       </c>
       <c r="D58" s="14">
-        <f>SUM(D59:D67)</f>
-        <v>42341935.75</v>
+        <f t="shared" ref="D58:O58" si="8">SUM(D59:D67)</f>
+        <v>42828271.27</v>
       </c>
       <c r="E58" s="14">
-        <f t="shared" ref="E58:O58" si="8">SUM(E59:E67)</f>
-        <v>42341935.75</v>
+        <f t="shared" si="8"/>
+        <v>42828271.27</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="8"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="8"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="8"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="8"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="J58" s="14">
         <f t="shared" si="8"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="K58" s="14">
         <f t="shared" si="8"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="L58" s="14">
         <f t="shared" si="8"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="M58" s="14">
         <f t="shared" si="8"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="N58" s="14">
         <f t="shared" si="8"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
       <c r="O58" s="14">
         <f t="shared" si="8"/>
-        <v>42341935.75</v>
+        <v>42828271.27</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6696,51 +6507,51 @@
       </c>
       <c r="D59" s="14">
         <f t="shared" ref="D59:O59" si="9">C59+D5-D32</f>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="E59" s="14">
         <f t="shared" si="9"/>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="F59" s="14">
         <f t="shared" si="9"/>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="G59" s="14">
         <f t="shared" si="9"/>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="9"/>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="I59" s="14">
         <f t="shared" si="9"/>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="J59" s="14">
         <f t="shared" si="9"/>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="K59" s="14">
         <f t="shared" si="9"/>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="L59" s="14">
         <f t="shared" si="9"/>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="M59" s="14">
         <f t="shared" si="9"/>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="N59" s="14">
         <f t="shared" si="9"/>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="O59" s="14">
         <f t="shared" si="9"/>
-        <v>20730445.46</v>
+        <v>17133452.3</v>
       </c>
       <c r="Q59" s="19"/>
     </row>
@@ -6754,51 +6565,51 @@
       </c>
       <c r="D60" s="14">
         <f t="shared" ref="D60:O60" si="10">C60+D6-D33</f>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="E60" s="14">
         <f t="shared" si="10"/>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="F60" s="14">
         <f t="shared" si="10"/>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="G60" s="14">
         <f t="shared" si="10"/>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="10"/>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="I60" s="14">
         <f t="shared" si="10"/>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="J60" s="14">
         <f t="shared" si="10"/>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="K60" s="14">
         <f t="shared" si="10"/>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="L60" s="14">
         <f t="shared" si="10"/>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="M60" s="14">
         <f t="shared" si="10"/>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="N60" s="14">
         <f t="shared" si="10"/>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="O60" s="14">
         <f t="shared" si="10"/>
-        <v>4366610.33000001</v>
+        <v>4630666.21000001</v>
       </c>
       <c r="Q60" s="19"/>
     </row>
@@ -7160,51 +6971,51 @@
       </c>
       <c r="D67" s="14">
         <f t="shared" ref="D67:O67" si="17">C67+D13-D40</f>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="E67" s="14">
         <f t="shared" si="17"/>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="F67" s="14">
         <f t="shared" si="17"/>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="G67" s="14">
         <f t="shared" si="17"/>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="H67" s="14">
         <f t="shared" si="17"/>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="I67" s="14">
         <f t="shared" si="17"/>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="J67" s="14">
         <f t="shared" si="17"/>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="K67" s="14">
         <f t="shared" si="17"/>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="L67" s="14">
         <f t="shared" si="17"/>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="M67" s="14">
         <f t="shared" si="17"/>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="N67" s="14">
         <f t="shared" si="17"/>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="O67" s="14">
         <f t="shared" si="17"/>
-        <v>3971994.52</v>
+        <v>7791267.32</v>
       </c>
       <c r="Q67" s="19"/>
     </row>
@@ -7334,51 +7145,51 @@
       </c>
       <c r="D70" s="14">
         <f t="shared" ref="D70:O70" si="20">C70+D16-D43</f>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="E70" s="14">
         <f t="shared" si="20"/>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="F70" s="14">
         <f t="shared" si="20"/>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="G70" s="14">
         <f t="shared" si="20"/>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="H70" s="14">
         <f t="shared" si="20"/>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="I70" s="14">
         <f t="shared" si="20"/>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="J70" s="14">
         <f t="shared" si="20"/>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="K70" s="14">
         <f t="shared" si="20"/>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="L70" s="14">
         <f t="shared" si="20"/>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="M70" s="14">
         <f t="shared" si="20"/>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="N70" s="22">
         <f t="shared" si="20"/>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="O70" s="14">
         <f t="shared" si="20"/>
-        <v>24620130.85</v>
+        <v>14540163.93</v>
       </c>
       <c r="Q70" s="19"/>
     </row>
@@ -7913,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="14">
-        <f t="shared" ref="D80:O81" si="30">C80+D26-D53</f>
+        <f t="shared" ref="D80:O80" si="30">C80+D26-D53</f>
         <v>0</v>
       </c>
       <c r="E80" s="14">
@@ -7971,51 +7782,51 @@
         <v>0</v>
       </c>
       <c r="D81" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="D81:O81" si="31">C81+D27-D54</f>
         <v>0</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F81" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G81" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H81" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I81" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J81" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K81" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L81" s="14">
-        <f>K81+L27-L54</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M81" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N81" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O81" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q81" s="19"/>
@@ -8029,52 +7840,52 @@
         <v>160868.73</v>
       </c>
       <c r="D82" s="14">
-        <f>C82+D28-D55</f>
-        <v>160868.73</v>
+        <f t="shared" ref="D82:O82" si="32">C82+D28-D55</f>
+        <v>1057082.25</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" ref="E82:O82" si="31">D82+E28-E55</f>
-        <v>160868.73</v>
+        <f t="shared" si="32"/>
+        <v>1057082.25</v>
       </c>
       <c r="F82" s="14">
-        <f t="shared" si="31"/>
-        <v>160868.73</v>
+        <f t="shared" si="32"/>
+        <v>1057082.25</v>
       </c>
       <c r="G82" s="14">
-        <f t="shared" si="31"/>
-        <v>160868.73</v>
+        <f t="shared" si="32"/>
+        <v>1057082.25</v>
       </c>
       <c r="H82" s="14">
-        <f t="shared" si="31"/>
-        <v>160868.73</v>
+        <f t="shared" si="32"/>
+        <v>1057082.25</v>
       </c>
       <c r="I82" s="14">
-        <f t="shared" si="31"/>
-        <v>160868.73</v>
+        <f t="shared" si="32"/>
+        <v>1057082.25</v>
       </c>
       <c r="J82" s="14">
-        <f t="shared" si="31"/>
-        <v>160868.73</v>
+        <f t="shared" si="32"/>
+        <v>1057082.25</v>
       </c>
       <c r="K82" s="14">
-        <f t="shared" si="31"/>
-        <v>160868.73</v>
+        <f t="shared" si="32"/>
+        <v>1057082.25</v>
       </c>
       <c r="L82" s="14">
-        <f t="shared" si="31"/>
-        <v>160868.73</v>
+        <f t="shared" si="32"/>
+        <v>1057082.25</v>
       </c>
       <c r="M82" s="14">
-        <f t="shared" si="31"/>
-        <v>160868.73</v>
+        <f t="shared" si="32"/>
+        <v>1057082.25</v>
       </c>
       <c r="N82" s="14">
-        <f t="shared" si="31"/>
-        <v>160868.73</v>
+        <f t="shared" si="32"/>
+        <v>1057082.25</v>
       </c>
       <c r="O82" s="14">
-        <f t="shared" si="31"/>
-        <v>160868.73</v>
+        <f t="shared" si="32"/>
+        <v>1057082.25</v>
       </c>
       <c r="Q82" s="19"/>
     </row>
@@ -8086,51 +7897,51 @@
         <v>26</v>
       </c>
       <c r="D85" s="7">
-        <f>D2-D25-D28</f>
-        <v>0</v>
+        <f t="shared" ref="D85:O85" si="33">D2-D25-D28</f>
+        <v>21786509.83</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" ref="E85:O85" si="32">E2-E25-E28</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H85" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I85" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J85" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K85" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L85" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M85" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N85" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O85" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -8139,51 +7950,51 @@
         <v>27</v>
       </c>
       <c r="D86" s="7">
-        <f>D29-D55-D52</f>
-        <v>0</v>
+        <f t="shared" ref="D86:O86" si="34">D29-D55-D52</f>
+        <v>31380141.23</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" ref="E86:O86" si="33">E29-E55-E52</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H86" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J86" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K86" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L86" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M86" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N86" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O86" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -8192,52 +8003,52 @@
         <v>28</v>
       </c>
       <c r="D87" s="7">
-        <f>D56-D82-D79</f>
-        <v>66962066.6</v>
+        <f t="shared" ref="D87:O87" si="35">D56-D82-D79</f>
+        <v>57368435.2</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" ref="E87:O87" si="34">E56-E82-E79</f>
-        <v>66962066.6</v>
+        <f t="shared" si="35"/>
+        <v>57368435.2</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="34"/>
-        <v>66962066.6</v>
+        <f t="shared" si="35"/>
+        <v>57368435.2</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="34"/>
-        <v>66962066.6</v>
+        <f t="shared" si="35"/>
+        <v>57368435.2</v>
       </c>
       <c r="H87" s="7">
-        <f t="shared" si="34"/>
-        <v>66962066.6</v>
+        <f t="shared" si="35"/>
+        <v>57368435.2</v>
       </c>
       <c r="I87" s="7">
-        <f t="shared" si="34"/>
-        <v>66962066.6</v>
+        <f t="shared" si="35"/>
+        <v>57368435.2</v>
       </c>
       <c r="J87" s="7">
-        <f t="shared" si="34"/>
-        <v>66962066.6</v>
+        <f t="shared" si="35"/>
+        <v>57368435.2</v>
       </c>
       <c r="K87" s="7">
-        <f t="shared" si="34"/>
-        <v>66962066.6</v>
+        <f t="shared" si="35"/>
+        <v>57368435.2</v>
       </c>
       <c r="L87" s="7">
-        <f t="shared" si="34"/>
-        <v>66962066.6</v>
+        <f t="shared" si="35"/>
+        <v>57368435.2</v>
       </c>
       <c r="M87" s="7">
-        <f t="shared" si="34"/>
-        <v>66962066.6</v>
+        <f t="shared" si="35"/>
+        <v>57368435.2</v>
       </c>
       <c r="N87" s="7">
-        <f t="shared" si="34"/>
-        <v>66962066.6</v>
+        <f t="shared" si="35"/>
+        <v>57368435.2</v>
       </c>
       <c r="O87" s="7">
-        <f t="shared" si="34"/>
-        <v>66962066.6</v>
+        <f t="shared" si="35"/>
+        <v>57368435.2</v>
       </c>
     </row>
   </sheetData>
@@ -8257,32 +8068,32 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="19" max="19" width="50.0720720720721" customWidth="1"/>
+    <col min="19" max="19" width="50.0727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" ht="14.15" spans="19:19">
-      <c r="S19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" ht="28.3" spans="19:19">
-      <c r="S20" s="2" t="s">
-        <v>39</v>
+    <row r="19" ht="14.15" customHeight="1" spans="19:19">
+      <c r="S19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="28.3" customHeight="1" spans="19:19">
+      <c r="S20" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="19:19">
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" ht="14.15" spans="19:19">
-      <c r="S22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" ht="14.15" spans="19:19">
-      <c r="S23" s="3" t="s">
-        <v>41</v>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" ht="14.15" customHeight="1" spans="19:19">
+      <c r="S22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" ht="14.15" customHeight="1" spans="19:19">
+      <c r="S23" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/tonns of good2025.xlsx
+++ b/tonns of good2025.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14605" activeTab="1"/>
+    <workbookView windowHeight="16630" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="quantity" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>作者:
 本期暂估螺纹入账</t>
@@ -51,9 +53,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>作者:
 本期配件暂估入库195465.81</t>
@@ -64,9 +68,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
+            <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>作者:
 在途借方+应付暂估贷方</t>
@@ -204,7 +210,7 @@
     <numFmt numFmtId="180" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="181" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,22 +300,23 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,13 +347,108 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -368,30 +470,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -404,6 +499,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -411,12 +521,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="68">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,8 +745,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -689,7 +987,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -698,17 +996,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,6 +1066,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -785,289 +1101,289 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="55" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="55" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1092,46 +1408,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="32" fillId="56" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="56" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="57" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="57" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="58" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="58" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
@@ -1164,66 +1480,66 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3">
+    <xf numFmtId="0" fontId="39" fillId="59" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="59" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="61" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="61" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="62" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="62" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="63" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="63" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="64" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="64" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="65" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="65" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="66" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="66" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="3">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1236,7 +1552,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1264,13 +1580,13 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1280,7 +1596,7 @@
     <xf numFmtId="40" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1481,6 +1797,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1782,15 +2105,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.46363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4636363636364" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.4636363636364" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.0727272727273" style="7" customWidth="1"/>
-    <col min="6" max="7" width="11.4636363636364" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.0727272727273" style="7" customWidth="1"/>
-    <col min="9" max="14" width="14.0727272727273" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.0727272727273" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.45454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4545454545455" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.4545454545455" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.0909090909091" style="7" customWidth="1"/>
+    <col min="6" max="7" width="11.4545454545455" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.0909090909091" style="7" customWidth="1"/>
+    <col min="9" max="14" width="14.0909090909091" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.0909090909091" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1849,7 +2172,7 @@
       </c>
       <c r="E2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1789.29</v>
       </c>
       <c r="F2" s="25">
         <f t="shared" si="0"/>
@@ -1904,7 +2227,7 @@
       </c>
       <c r="E3" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>540.54</v>
       </c>
       <c r="F3" s="26">
         <f t="shared" si="1"/>
@@ -1959,7 +2282,7 @@
       </c>
       <c r="E4" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>540.54</v>
       </c>
       <c r="F4" s="26">
         <f t="shared" si="2"/>
@@ -2011,7 +2334,9 @@
       <c r="D5" s="26">
         <v>102.96</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="26">
+        <v>231.66</v>
+      </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -2032,7 +2357,9 @@
       <c r="D6" s="26">
         <v>411.84</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -2169,7 +2496,9 @@
       <c r="D13" s="26">
         <v>411.84</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="26">
+        <v>308.88</v>
+      </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
@@ -2228,7 +2557,9 @@
       <c r="D16" s="26">
         <v>1498.75</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="26">
+        <v>1248.75</v>
+      </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
@@ -2480,7 +2811,7 @@
       </c>
       <c r="E29" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2718.22</v>
       </c>
       <c r="F29" s="25">
         <f t="shared" si="3"/>
@@ -2535,7 +2866,7 @@
       </c>
       <c r="E30" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>720.72</v>
       </c>
       <c r="F30" s="26">
         <f t="shared" si="4"/>
@@ -2590,7 +2921,7 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>720.72</v>
       </c>
       <c r="F31" s="26">
         <f t="shared" si="5"/>
@@ -2642,7 +2973,9 @@
       <c r="D32" s="26">
         <v>437.58</v>
       </c>
-      <c r="E32" s="26"/>
+      <c r="E32" s="26">
+        <v>205.92</v>
+      </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -2663,7 +2996,9 @@
       <c r="D33" s="26">
         <v>326.43</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="30">
+        <v>128.7</v>
+      </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
@@ -2777,7 +3112,9 @@
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="31">
+        <v>25.74</v>
+      </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
@@ -2796,7 +3133,9 @@
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="E40" s="26">
+        <v>360.36</v>
+      </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -2855,7 +3194,9 @@
       <c r="D43" s="26">
         <v>2484.125</v>
       </c>
-      <c r="E43" s="31"/>
+      <c r="E43" s="31">
+        <v>1997.5</v>
+      </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
       <c r="H43" s="26"/>
@@ -3110,47 +3451,47 @@
       </c>
       <c r="E56" s="25">
         <f t="shared" si="6"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="6"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="6"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="6"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="6"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="J56" s="25">
         <f t="shared" si="6"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="K56" s="25">
         <f t="shared" si="6"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="L56" s="25">
         <f t="shared" si="6"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="M56" s="25">
         <f t="shared" si="6"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="N56" s="25">
         <f t="shared" si="6"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="O56" s="25">
         <f t="shared" si="6"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3168,47 +3509,47 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="7"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="F57" s="26">
         <f t="shared" si="7"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="G57" s="26">
         <f t="shared" si="7"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="H57" s="26">
         <f t="shared" si="7"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="I57" s="26">
         <f t="shared" si="7"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="J57" s="26">
         <f t="shared" si="7"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="K57" s="26">
         <f t="shared" si="7"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="L57" s="26">
         <f t="shared" si="7"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="M57" s="26">
         <f t="shared" si="7"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="N57" s="26">
         <f t="shared" si="7"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="O57" s="26">
         <f t="shared" si="7"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3226,47 +3567,47 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="8"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="F58" s="26">
         <f t="shared" si="8"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="G58" s="26">
         <f t="shared" si="8"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="H58" s="26">
         <f t="shared" si="8"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="I58" s="26">
         <f t="shared" si="8"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="J58" s="26">
         <f t="shared" si="8"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="K58" s="26">
         <f t="shared" si="8"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="L58" s="26">
         <f t="shared" si="8"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="M58" s="26">
         <f t="shared" si="8"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="N58" s="26">
         <f t="shared" si="8"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
       <c r="O58" s="26">
         <f t="shared" si="8"/>
-        <v>4142.97</v>
+        <v>3962.79</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3283,47 +3624,47 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="9"/>
-        <v>1648.53</v>
+        <v>1674.27</v>
       </c>
       <c r="F59" s="26">
         <f t="shared" si="9"/>
-        <v>1648.53</v>
+        <v>1674.27</v>
       </c>
       <c r="G59" s="26">
         <f t="shared" si="9"/>
-        <v>1648.53</v>
+        <v>1674.27</v>
       </c>
       <c r="H59" s="26">
         <f t="shared" si="9"/>
-        <v>1648.53</v>
+        <v>1674.27</v>
       </c>
       <c r="I59" s="26">
         <f t="shared" si="9"/>
-        <v>1648.53</v>
+        <v>1674.27</v>
       </c>
       <c r="J59" s="26">
         <f t="shared" si="9"/>
-        <v>1648.53</v>
+        <v>1674.27</v>
       </c>
       <c r="K59" s="26">
         <f t="shared" si="9"/>
-        <v>1648.53</v>
+        <v>1674.27</v>
       </c>
       <c r="L59" s="26">
         <f t="shared" si="9"/>
-        <v>1648.53</v>
+        <v>1674.27</v>
       </c>
       <c r="M59" s="26">
         <f t="shared" si="9"/>
-        <v>1648.53</v>
+        <v>1674.27</v>
       </c>
       <c r="N59" s="26">
         <f t="shared" si="9"/>
-        <v>1648.53</v>
+        <v>1674.27</v>
       </c>
       <c r="O59" s="36">
         <f t="shared" si="9"/>
-        <v>1648.53</v>
+        <v>1674.27</v>
       </c>
       <c r="Q59" s="19"/>
     </row>
@@ -3341,47 +3682,47 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="10"/>
-        <v>485.55</v>
+        <v>356.85</v>
       </c>
       <c r="F60" s="26">
         <f t="shared" si="10"/>
-        <v>485.55</v>
+        <v>356.85</v>
       </c>
       <c r="G60" s="26">
         <f t="shared" si="10"/>
-        <v>485.55</v>
+        <v>356.85</v>
       </c>
       <c r="H60" s="26">
         <f t="shared" si="10"/>
-        <v>485.55</v>
+        <v>356.85</v>
       </c>
       <c r="I60" s="26">
         <f t="shared" si="10"/>
-        <v>485.55</v>
+        <v>356.85</v>
       </c>
       <c r="J60" s="26">
         <f t="shared" si="10"/>
-        <v>485.55</v>
+        <v>356.85</v>
       </c>
       <c r="K60" s="26">
         <f t="shared" si="10"/>
-        <v>485.55</v>
+        <v>356.85</v>
       </c>
       <c r="L60" s="26">
         <f t="shared" si="10"/>
-        <v>485.55</v>
+        <v>356.85</v>
       </c>
       <c r="M60" s="26">
         <f t="shared" si="10"/>
-        <v>485.55</v>
+        <v>356.85</v>
       </c>
       <c r="N60" s="26">
         <f t="shared" si="10"/>
-        <v>485.55</v>
+        <v>356.85</v>
       </c>
       <c r="O60" s="26">
         <f t="shared" si="10"/>
-        <v>485.55</v>
+        <v>356.85</v>
       </c>
       <c r="Q60" s="19"/>
     </row>
@@ -3689,47 +4030,47 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="16"/>
-        <v>773.369999999998</v>
+        <v>747.629999999998</v>
       </c>
       <c r="F66" s="26">
         <f t="shared" si="16"/>
-        <v>773.369999999998</v>
+        <v>747.629999999998</v>
       </c>
       <c r="G66" s="26">
         <f t="shared" si="16"/>
-        <v>773.369999999998</v>
+        <v>747.629999999998</v>
       </c>
       <c r="H66" s="26">
         <f t="shared" si="16"/>
-        <v>773.369999999998</v>
+        <v>747.629999999998</v>
       </c>
       <c r="I66" s="26">
         <f t="shared" si="16"/>
-        <v>773.369999999998</v>
+        <v>747.629999999998</v>
       </c>
       <c r="J66" s="26">
         <f t="shared" si="16"/>
-        <v>773.369999999998</v>
+        <v>747.629999999998</v>
       </c>
       <c r="K66" s="26">
         <f t="shared" si="16"/>
-        <v>773.369999999998</v>
+        <v>747.629999999998</v>
       </c>
       <c r="L66" s="26">
         <f t="shared" si="16"/>
-        <v>773.369999999998</v>
+        <v>747.629999999998</v>
       </c>
       <c r="M66" s="26">
         <f t="shared" si="16"/>
-        <v>773.369999999998</v>
+        <v>747.629999999998</v>
       </c>
       <c r="N66" s="26">
         <f t="shared" si="16"/>
-        <v>773.369999999998</v>
+        <v>747.629999999998</v>
       </c>
       <c r="O66" s="26">
         <f t="shared" si="16"/>
-        <v>773.369999999998</v>
+        <v>747.629999999998</v>
       </c>
       <c r="Q66" s="19"/>
     </row>
@@ -3747,47 +4088,47 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="17"/>
-        <v>772.2</v>
+        <v>720.72</v>
       </c>
       <c r="F67" s="26">
         <f t="shared" si="17"/>
-        <v>772.2</v>
+        <v>720.72</v>
       </c>
       <c r="G67" s="26">
         <f t="shared" si="17"/>
-        <v>772.2</v>
+        <v>720.72</v>
       </c>
       <c r="H67" s="26">
         <f t="shared" si="17"/>
-        <v>772.2</v>
+        <v>720.72</v>
       </c>
       <c r="I67" s="26">
         <f t="shared" si="17"/>
-        <v>772.2</v>
+        <v>720.72</v>
       </c>
       <c r="J67" s="26">
         <f t="shared" si="17"/>
-        <v>772.2</v>
+        <v>720.72</v>
       </c>
       <c r="K67" s="26">
         <f t="shared" si="17"/>
-        <v>772.2</v>
+        <v>720.72</v>
       </c>
       <c r="L67" s="26">
         <f t="shared" si="17"/>
-        <v>772.2</v>
+        <v>720.72</v>
       </c>
       <c r="M67" s="26">
         <f t="shared" si="17"/>
-        <v>772.2</v>
+        <v>720.72</v>
       </c>
       <c r="N67" s="26">
         <f t="shared" si="17"/>
-        <v>772.2</v>
+        <v>720.72</v>
       </c>
       <c r="O67" s="26">
         <f t="shared" si="17"/>
-        <v>772.2</v>
+        <v>720.72</v>
       </c>
       <c r="Q67" s="19"/>
     </row>
@@ -3921,47 +4262,47 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="20"/>
-        <v>1648.75</v>
+        <v>900</v>
       </c>
       <c r="F70" s="26">
         <f t="shared" si="20"/>
-        <v>1648.75</v>
+        <v>900</v>
       </c>
       <c r="G70" s="26">
         <f t="shared" si="20"/>
-        <v>1648.75</v>
+        <v>900</v>
       </c>
       <c r="H70" s="26">
         <f t="shared" si="20"/>
-        <v>1648.75</v>
+        <v>900</v>
       </c>
       <c r="I70" s="26">
         <f t="shared" si="20"/>
-        <v>1648.75</v>
+        <v>900</v>
       </c>
       <c r="J70" s="26">
         <f t="shared" si="20"/>
-        <v>1648.75</v>
+        <v>900</v>
       </c>
       <c r="K70" s="26">
         <f t="shared" si="20"/>
-        <v>1648.75</v>
+        <v>900</v>
       </c>
       <c r="L70" s="26">
         <f t="shared" si="20"/>
-        <v>1648.75</v>
+        <v>900</v>
       </c>
       <c r="M70" s="26">
         <f t="shared" si="20"/>
-        <v>1648.75</v>
+        <v>900</v>
       </c>
       <c r="N70" s="26">
         <f t="shared" si="20"/>
-        <v>1648.75</v>
+        <v>900</v>
       </c>
       <c r="O70" s="26">
         <f t="shared" si="20"/>
-        <v>1648.75</v>
+        <v>900</v>
       </c>
       <c r="Q70" s="19"/>
     </row>
@@ -4677,7 +5018,7 @@
       </c>
       <c r="E85" s="24">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1789.29</v>
       </c>
       <c r="F85" s="24">
         <f t="shared" si="33"/>
@@ -4731,7 +5072,7 @@
       </c>
       <c r="E86" s="24">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2718.22</v>
       </c>
       <c r="F86" s="24">
         <f t="shared" si="34"/>
@@ -4785,47 +5126,47 @@
       </c>
       <c r="E87" s="24">
         <f t="shared" si="35"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="F87" s="24">
         <f t="shared" si="35"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="G87" s="24">
         <f t="shared" si="35"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="H87" s="24">
         <f t="shared" si="35"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="I87" s="24">
         <f t="shared" si="35"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="J87" s="24">
         <f t="shared" si="35"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="K87" s="24">
         <f t="shared" si="35"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="L87" s="24">
         <f t="shared" si="35"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="M87" s="24">
         <f t="shared" si="35"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="N87" s="24">
         <f t="shared" si="35"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="O87" s="24">
         <f t="shared" si="35"/>
-        <v>5791.72</v>
+        <v>4862.79</v>
       </c>
       <c r="Q87" s="19"/>
     </row>
@@ -4995,26 +5336,26 @@
   <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.46363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.0727272727273" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.45454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.0909090909091" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.7272727272727" style="6" customWidth="1"/>
-    <col min="4" max="6" width="16.0727272727273" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.6909090909091" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.4909090909091" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.5636363636364" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.0727272727273" style="7" customWidth="1"/>
-    <col min="11" max="15" width="14.0727272727273" style="7" customWidth="1"/>
-    <col min="16" max="16" width="20.4636363636364" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.4636363636364" style="1" customWidth="1"/>
+    <col min="4" max="6" width="16.0909090909091" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.7272727272727" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.4545454545455" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.5454545454545" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.0909090909091" style="7" customWidth="1"/>
+    <col min="11" max="15" width="14.0909090909091" style="7" customWidth="1"/>
+    <col min="16" max="16" width="20.4545454545455" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.4545454545455" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -5073,7 +5414,7 @@
       </c>
       <c r="E2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18566308.87</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" si="0"/>
@@ -5128,7 +5469,7 @@
       </c>
       <c r="E3" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5019414.96</v>
       </c>
       <c r="F3" s="14">
         <f t="shared" si="1"/>
@@ -5183,7 +5524,7 @@
       </c>
       <c r="E4" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5019414.96</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" si="2"/>
@@ -5235,7 +5576,9 @@
       <c r="D5" s="14">
         <v>1019328.8</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14">
+        <v>2151177.84</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -5256,7 +5599,9 @@
       <c r="D6" s="14">
         <v>3819219.68</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -5393,7 +5738,9 @@
       <c r="D13" s="14">
         <v>3819272.8</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14">
+        <v>2868237.12</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -5452,7 +5799,9 @@
       <c r="D16" s="14">
         <v>13128688.55</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14">
+        <v>10834686.97</v>
+      </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -5681,7 +6030,9 @@
       <c r="D28" s="14">
         <v>1725751.45</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="14">
+        <v>2712206.94</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -5706,7 +6057,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26716829</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="3"/>
@@ -5761,7 +6112,7 @@
       </c>
       <c r="E30" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7277404.28</v>
       </c>
       <c r="F30" s="14">
         <f t="shared" si="4"/>
@@ -5816,7 +6167,7 @@
       </c>
       <c r="E31" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7277404.28</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" si="5"/>
@@ -5868,7 +6219,9 @@
       <c r="D32" s="14">
         <v>4616321.96</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="14">
+        <v>2191541.42</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
@@ -5889,7 +6242,9 @@
       <c r="D33" s="14">
         <v>3555163.8</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="14">
+        <v>1228997.79</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -6003,7 +6358,9 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="14">
+        <v>285085.73</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -6022,7 +6379,9 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="14">
+        <v>3571779.34</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
@@ -6081,7 +6440,9 @@
       <c r="D43" s="14">
         <v>23208655.47</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="14">
+        <v>17487454.66</v>
+      </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -6311,7 +6672,9 @@
       <c r="D55" s="14">
         <v>829537.93</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="14">
+        <v>1951970.06</v>
+      </c>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
@@ -6338,47 +6701,47 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="6"/>
-        <v>58425517.45</v>
+        <v>50274997.32</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="6"/>
-        <v>58425517.45</v>
+        <v>50274997.32</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="6"/>
-        <v>58425517.45</v>
+        <v>50274997.32</v>
       </c>
       <c r="H56" s="11">
         <f t="shared" si="6"/>
-        <v>58425517.45</v>
+        <v>50274997.32</v>
       </c>
       <c r="I56" s="11">
         <f t="shared" si="6"/>
-        <v>58425517.45</v>
+        <v>50274997.32</v>
       </c>
       <c r="J56" s="11">
         <f t="shared" si="6"/>
-        <v>58425517.45</v>
+        <v>50274997.32</v>
       </c>
       <c r="K56" s="11">
         <f t="shared" si="6"/>
-        <v>58425517.45</v>
+        <v>50274997.32</v>
       </c>
       <c r="L56" s="11">
         <f t="shared" si="6"/>
-        <v>58425517.45</v>
+        <v>50274997.32</v>
       </c>
       <c r="M56" s="18">
         <f t="shared" si="6"/>
-        <v>58425517.45</v>
+        <v>50274997.32</v>
       </c>
       <c r="N56" s="11">
         <f t="shared" si="6"/>
-        <v>58425517.45</v>
+        <v>50274997.32</v>
       </c>
       <c r="O56" s="11">
         <f t="shared" si="6"/>
-        <v>58425517.45</v>
+        <v>50274997.32</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -6396,47 +6759,47 @@
       </c>
       <c r="E57" s="14">
         <f t="shared" si="7"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="F57" s="14">
         <f t="shared" si="7"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="G57" s="14">
         <f t="shared" si="7"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="7"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="I57" s="14">
         <f t="shared" si="7"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="J57" s="14">
         <f t="shared" si="7"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="K57" s="14">
         <f t="shared" si="7"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="L57" s="14">
         <f t="shared" si="7"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="M57" s="14">
         <f t="shared" si="7"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="N57" s="14">
         <f t="shared" si="7"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="O57" s="14">
         <f t="shared" si="7"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -6454,47 +6817,47 @@
       </c>
       <c r="E58" s="14">
         <f t="shared" si="8"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="8"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="8"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="8"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="8"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="J58" s="14">
         <f t="shared" si="8"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="K58" s="14">
         <f t="shared" si="8"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="L58" s="14">
         <f t="shared" si="8"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="M58" s="14">
         <f t="shared" si="8"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="N58" s="14">
         <f t="shared" si="8"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
       <c r="O58" s="14">
         <f t="shared" si="8"/>
-        <v>42828271.27</v>
+        <v>40570281.95</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6511,47 +6874,47 @@
       </c>
       <c r="E59" s="14">
         <f t="shared" si="9"/>
-        <v>17133452.3</v>
+        <v>17093088.72</v>
       </c>
       <c r="F59" s="14">
         <f t="shared" si="9"/>
-        <v>17133452.3</v>
+        <v>17093088.72</v>
       </c>
       <c r="G59" s="14">
         <f t="shared" si="9"/>
-        <v>17133452.3</v>
+        <v>17093088.72</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="9"/>
-        <v>17133452.3</v>
+        <v>17093088.72</v>
       </c>
       <c r="I59" s="14">
         <f t="shared" si="9"/>
-        <v>17133452.3</v>
+        <v>17093088.72</v>
       </c>
       <c r="J59" s="14">
         <f t="shared" si="9"/>
-        <v>17133452.3</v>
+        <v>17093088.72</v>
       </c>
       <c r="K59" s="14">
         <f t="shared" si="9"/>
-        <v>17133452.3</v>
+        <v>17093088.72</v>
       </c>
       <c r="L59" s="14">
         <f t="shared" si="9"/>
-        <v>17133452.3</v>
+        <v>17093088.72</v>
       </c>
       <c r="M59" s="14">
         <f t="shared" si="9"/>
-        <v>17133452.3</v>
+        <v>17093088.72</v>
       </c>
       <c r="N59" s="14">
         <f t="shared" si="9"/>
-        <v>17133452.3</v>
+        <v>17093088.72</v>
       </c>
       <c r="O59" s="14">
         <f t="shared" si="9"/>
-        <v>17133452.3</v>
+        <v>17093088.72</v>
       </c>
       <c r="Q59" s="19"/>
     </row>
@@ -6569,47 +6932,47 @@
       </c>
       <c r="E60" s="14">
         <f t="shared" si="10"/>
-        <v>4630666.21000001</v>
+        <v>3401668.42000001</v>
       </c>
       <c r="F60" s="14">
         <f t="shared" si="10"/>
-        <v>4630666.21000001</v>
+        <v>3401668.42000001</v>
       </c>
       <c r="G60" s="14">
         <f t="shared" si="10"/>
-        <v>4630666.21000001</v>
+        <v>3401668.42000001</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="10"/>
-        <v>4630666.21000001</v>
+        <v>3401668.42000001</v>
       </c>
       <c r="I60" s="14">
         <f t="shared" si="10"/>
-        <v>4630666.21000001</v>
+        <v>3401668.42000001</v>
       </c>
       <c r="J60" s="14">
         <f t="shared" si="10"/>
-        <v>4630666.21000001</v>
+        <v>3401668.42000001</v>
       </c>
       <c r="K60" s="14">
         <f t="shared" si="10"/>
-        <v>4630666.21000001</v>
+        <v>3401668.42000001</v>
       </c>
       <c r="L60" s="14">
         <f t="shared" si="10"/>
-        <v>4630666.21000001</v>
+        <v>3401668.42000001</v>
       </c>
       <c r="M60" s="14">
         <f t="shared" si="10"/>
-        <v>4630666.21000001</v>
+        <v>3401668.42000001</v>
       </c>
       <c r="N60" s="14">
         <f t="shared" si="10"/>
-        <v>4630666.21000001</v>
+        <v>3401668.42000001</v>
       </c>
       <c r="O60" s="14">
         <f t="shared" si="10"/>
-        <v>4630666.21000001</v>
+        <v>3401668.42000001</v>
       </c>
       <c r="Q60" s="19"/>
     </row>
@@ -6917,47 +7280,47 @@
       </c>
       <c r="E66" s="14">
         <f t="shared" si="16"/>
-        <v>8118818.10000002</v>
+        <v>7833732.37000002</v>
       </c>
       <c r="F66" s="14">
         <f t="shared" si="16"/>
-        <v>8118818.10000002</v>
+        <v>7833732.37000002</v>
       </c>
       <c r="G66" s="14">
         <f t="shared" si="16"/>
-        <v>8118818.10000002</v>
+        <v>7833732.37000002</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="16"/>
-        <v>8118818.10000002</v>
+        <v>7833732.37000002</v>
       </c>
       <c r="I66" s="14">
         <f t="shared" si="16"/>
-        <v>8118818.10000002</v>
+        <v>7833732.37000002</v>
       </c>
       <c r="J66" s="14">
         <f t="shared" si="16"/>
-        <v>8118818.10000002</v>
+        <v>7833732.37000002</v>
       </c>
       <c r="K66" s="14">
         <f t="shared" si="16"/>
-        <v>8118818.10000002</v>
+        <v>7833732.37000002</v>
       </c>
       <c r="L66" s="14">
         <f t="shared" si="16"/>
-        <v>8118818.10000002</v>
+        <v>7833732.37000002</v>
       </c>
       <c r="M66" s="14">
         <f t="shared" si="16"/>
-        <v>8118818.10000002</v>
+        <v>7833732.37000002</v>
       </c>
       <c r="N66" s="14">
         <f t="shared" si="16"/>
-        <v>8118818.10000002</v>
+        <v>7833732.37000002</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" si="16"/>
-        <v>8118818.10000002</v>
+        <v>7833732.37000002</v>
       </c>
       <c r="Q66" s="19"/>
     </row>
@@ -6975,47 +7338,47 @@
       </c>
       <c r="E67" s="14">
         <f t="shared" si="17"/>
-        <v>7791267.32</v>
+        <v>7087725.1</v>
       </c>
       <c r="F67" s="14">
         <f t="shared" si="17"/>
-        <v>7791267.32</v>
+        <v>7087725.1</v>
       </c>
       <c r="G67" s="14">
         <f t="shared" si="17"/>
-        <v>7791267.32</v>
+        <v>7087725.1</v>
       </c>
       <c r="H67" s="14">
         <f t="shared" si="17"/>
-        <v>7791267.32</v>
+        <v>7087725.1</v>
       </c>
       <c r="I67" s="14">
         <f t="shared" si="17"/>
-        <v>7791267.32</v>
+        <v>7087725.1</v>
       </c>
       <c r="J67" s="14">
         <f t="shared" si="17"/>
-        <v>7791267.32</v>
+        <v>7087725.1</v>
       </c>
       <c r="K67" s="14">
         <f t="shared" si="17"/>
-        <v>7791267.32</v>
+        <v>7087725.1</v>
       </c>
       <c r="L67" s="14">
         <f t="shared" si="17"/>
-        <v>7791267.32</v>
+        <v>7087725.1</v>
       </c>
       <c r="M67" s="14">
         <f t="shared" si="17"/>
-        <v>7791267.32</v>
+        <v>7087725.1</v>
       </c>
       <c r="N67" s="14">
         <f t="shared" si="17"/>
-        <v>7791267.32</v>
+        <v>7087725.1</v>
       </c>
       <c r="O67" s="14">
         <f t="shared" si="17"/>
-        <v>7791267.32</v>
+        <v>7087725.1</v>
       </c>
       <c r="Q67" s="19"/>
     </row>
@@ -7149,47 +7512,47 @@
       </c>
       <c r="E70" s="14">
         <f t="shared" si="20"/>
-        <v>14540163.93</v>
+        <v>7887396.24000001</v>
       </c>
       <c r="F70" s="14">
         <f t="shared" si="20"/>
-        <v>14540163.93</v>
+        <v>7887396.24000001</v>
       </c>
       <c r="G70" s="14">
         <f t="shared" si="20"/>
-        <v>14540163.93</v>
+        <v>7887396.24000001</v>
       </c>
       <c r="H70" s="14">
         <f t="shared" si="20"/>
-        <v>14540163.93</v>
+        <v>7887396.24000001</v>
       </c>
       <c r="I70" s="14">
         <f t="shared" si="20"/>
-        <v>14540163.93</v>
+        <v>7887396.24000001</v>
       </c>
       <c r="J70" s="14">
         <f t="shared" si="20"/>
-        <v>14540163.93</v>
+        <v>7887396.24000001</v>
       </c>
       <c r="K70" s="14">
         <f t="shared" si="20"/>
-        <v>14540163.93</v>
+        <v>7887396.24000001</v>
       </c>
       <c r="L70" s="14">
         <f t="shared" si="20"/>
-        <v>14540163.93</v>
+        <v>7887396.24000001</v>
       </c>
       <c r="M70" s="14">
         <f t="shared" si="20"/>
-        <v>14540163.93</v>
+        <v>7887396.24000001</v>
       </c>
       <c r="N70" s="22">
         <f t="shared" si="20"/>
-        <v>14540163.93</v>
+        <v>7887396.24000001</v>
       </c>
       <c r="O70" s="14">
         <f t="shared" si="20"/>
-        <v>14540163.93</v>
+        <v>7887396.24000001</v>
       </c>
       <c r="Q70" s="19"/>
     </row>
@@ -7845,47 +8208,47 @@
       </c>
       <c r="E82" s="14">
         <f t="shared" si="32"/>
-        <v>1057082.25</v>
+        <v>1817319.13</v>
       </c>
       <c r="F82" s="14">
         <f t="shared" si="32"/>
-        <v>1057082.25</v>
+        <v>1817319.13</v>
       </c>
       <c r="G82" s="14">
         <f t="shared" si="32"/>
-        <v>1057082.25</v>
+        <v>1817319.13</v>
       </c>
       <c r="H82" s="14">
         <f t="shared" si="32"/>
-        <v>1057082.25</v>
+        <v>1817319.13</v>
       </c>
       <c r="I82" s="14">
         <f t="shared" si="32"/>
-        <v>1057082.25</v>
+        <v>1817319.13</v>
       </c>
       <c r="J82" s="14">
         <f t="shared" si="32"/>
-        <v>1057082.25</v>
+        <v>1817319.13</v>
       </c>
       <c r="K82" s="14">
         <f t="shared" si="32"/>
-        <v>1057082.25</v>
+        <v>1817319.13</v>
       </c>
       <c r="L82" s="14">
         <f t="shared" si="32"/>
-        <v>1057082.25</v>
+        <v>1817319.13</v>
       </c>
       <c r="M82" s="14">
         <f t="shared" si="32"/>
-        <v>1057082.25</v>
+        <v>1817319.13</v>
       </c>
       <c r="N82" s="14">
         <f t="shared" si="32"/>
-        <v>1057082.25</v>
+        <v>1817319.13</v>
       </c>
       <c r="O82" s="14">
         <f t="shared" si="32"/>
-        <v>1057082.25</v>
+        <v>1817319.13</v>
       </c>
       <c r="Q82" s="19"/>
     </row>
@@ -7902,7 +8265,7 @@
       </c>
       <c r="E85" s="7">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>15854101.93</v>
       </c>
       <c r="F85" s="7">
         <f t="shared" si="33"/>
@@ -7955,7 +8318,7 @@
       </c>
       <c r="E86" s="7">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>24764858.94</v>
       </c>
       <c r="F86" s="7">
         <f t="shared" si="34"/>
@@ -8008,47 +8371,47 @@
       </c>
       <c r="E87" s="7">
         <f t="shared" si="35"/>
-        <v>57368435.2</v>
+        <v>48457678.19</v>
       </c>
       <c r="F87" s="7">
         <f t="shared" si="35"/>
-        <v>57368435.2</v>
+        <v>48457678.19</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="35"/>
-        <v>57368435.2</v>
+        <v>48457678.19</v>
       </c>
       <c r="H87" s="7">
         <f t="shared" si="35"/>
-        <v>57368435.2</v>
+        <v>48457678.19</v>
       </c>
       <c r="I87" s="7">
         <f t="shared" si="35"/>
-        <v>57368435.2</v>
+        <v>48457678.19</v>
       </c>
       <c r="J87" s="7">
         <f t="shared" si="35"/>
-        <v>57368435.2</v>
+        <v>48457678.19</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="35"/>
-        <v>57368435.2</v>
+        <v>48457678.19</v>
       </c>
       <c r="L87" s="7">
         <f t="shared" si="35"/>
-        <v>57368435.2</v>
+        <v>48457678.19</v>
       </c>
       <c r="M87" s="7">
         <f t="shared" si="35"/>
-        <v>57368435.2</v>
+        <v>48457678.19</v>
       </c>
       <c r="N87" s="7">
         <f t="shared" si="35"/>
-        <v>57368435.2</v>
+        <v>48457678.19</v>
       </c>
       <c r="O87" s="7">
         <f t="shared" si="35"/>
-        <v>57368435.2</v>
+        <v>48457678.19</v>
       </c>
     </row>
   </sheetData>
@@ -8070,7 +8433,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="19" max="19" width="50.0727272727273" style="1" customWidth="1"/>
+    <col min="19" max="19" width="50.0909090909091" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="19" ht="14.15" customHeight="1" spans="19:19">
@@ -8078,7 +8441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" ht="28.3" customHeight="1" spans="19:19">
+    <row r="20" ht="28.25" customHeight="1" spans="19:19">
       <c r="S20" s="3" t="s">
         <v>33</v>
       </c>
